--- a/SolicitacaoAlteracaoInventario.xlsx
+++ b/SolicitacaoAlteracaoInventario.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtalcorp-my.sharepoint.com/personal/alex_silva_vtal_com/Documents/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\inventory_change_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5F671F7-4317-405D-83F1-80FBCA0FEFBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD011B6-A3FD-4371-885C-F4FC348C3366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{05F3C5E2-8288-407C-9DCA-40373417AF91}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Código</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>DESLIGUE E RETIRADA</t>
+  </si>
+  <si>
+    <t>ALTERAÇÃO DE PERÍMETRO</t>
   </si>
 </sst>
 </file>
@@ -119,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -450,12 +453,18 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4505C700-24AA-4687-ABEB-B41541FF4968}">
           <x14:formula1>
             <xm:f>Planilha2!$A$1:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>F3:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B0630C9-CB90-417E-ADFC-A7920C1E37B4}">
+          <x14:formula1>
+            <xm:f>Planilha2!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -465,15 +474,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EA8077-3F9E-4CBF-B9DC-BBA4397B3BEB}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -491,6 +500,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
